--- a/examples/Data.xlsx
+++ b/examples/Data.xlsx
@@ -5,46 +5,45 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\TaskManager\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4ADA8F-864E-47A4-8C13-CD72E1F1A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1458A5-865A-49A4-9AD7-C03C250C721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2205" windowWidth="24585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Учителя" sheetId="1" r:id="rId1"/>
-    <sheet name="Кабинеты" sheetId="3" r:id="rId2"/>
+    <sheet name="Доски" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>ФИученика22</t>
-  </si>
-  <si>
-    <t>ФИученика23</t>
-  </si>
-  <si>
-    <t>ФИученика24</t>
-  </si>
-  <si>
-    <t>ФИученика25</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Задачи</t>
+  </si>
+  <si>
+    <t>Ежедневка</t>
+  </si>
+  <si>
+    <t>DaylyLim</t>
+  </si>
+  <si>
+    <t>wUkN</t>
+  </si>
+  <si>
+    <t>J90d</t>
+  </si>
+  <si>
+    <t>m9OPI7wT</t>
+  </si>
+  <si>
+    <t>sjiXF2f7</t>
+  </si>
+  <si>
+    <t>rK9IJzFS</t>
   </si>
 </sst>
 </file>
@@ -77,9 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -393,111 +391,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D1">
-        <v>150</v>
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>36526.25</v>
-      </c>
-      <c r="C4" s="1">
-        <v>36526.979166666664</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Data.xlsx
+++ b/examples/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\TaskManager\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1458A5-865A-49A4-9AD7-C03C250C721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7659A7F2-4E24-49F9-B86C-D5B4A6B6BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2205" windowWidth="24585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2835" windowWidth="24585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Доски" sheetId="3" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
